--- a/mapa_completo.xlsx
+++ b/mapa_completo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/mario_deltoro_armas_alumnos_upm_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="8_{F343C007-991F-3E44-94DF-2E0C55F3744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350E4002-D87D-DD4E-8BEB-5475553C7FAA}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="8_{F343C007-991F-3E44-94DF-2E0C55F3744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FB1A58-5A37-45C4-BD7E-82049E6576F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7DB5DC03-282A-084E-B4A1-DDF99181EB5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7DB5DC03-282A-084E-B4A1-DDF99181EB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,13 +417,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22168D6-B47F-6D4B-BD95-73AF80842D54}">
   <dimension ref="A1:AO73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AK49" sqref="AK49"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="11.19921875" customWidth="1"/>
+    <col min="25" max="25" width="11.19921875" customWidth="1"/>
+    <col min="27" max="27" width="11.19921875" customWidth="1"/>
+    <col min="39" max="39" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.4</v>
       </c>
@@ -533,7 +539,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>28</v>
       </c>
@@ -646,7 +652,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -759,7 +765,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>32</v>
       </c>
@@ -872,7 +878,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -985,7 +991,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>35</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>35</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>35</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>35</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>35</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>35</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>35</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>35</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>35</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>35</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>35</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>35</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4263,2449 +4269,2450 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>-20+A3*2</f>
         <v>36</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:R41" si="0">-20+B3*2</f>
+        <f>-20+B3*2</f>
         <v>28</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f>-20+C3*2</f>
         <v>22</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f>-20+D3*2</f>
         <v>18</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>-20+E3*2</f>
         <v>14</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f>-20+F3*2</f>
         <v>10</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>-20+G3*2</f>
         <v>8</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f>-20+H3*2</f>
         <v>6</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f>-20+I3*2</f>
         <v>4</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f>-20+J3*2</f>
         <v>2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f>-20+K3*2</f>
         <v>-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f>-20+L3*2</f>
         <v>-4</v>
       </c>
       <c r="M41">
-        <f t="shared" si="0"/>
+        <f>-20+M3*2</f>
         <v>-6</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f>-20+N3*2</f>
         <v>-8</v>
       </c>
       <c r="O41">
-        <f t="shared" si="0"/>
+        <f>-20+O3*2</f>
         <v>-10</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
+        <f>-20+P3*2</f>
         <v>-10</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f>-20+Q3*2</f>
         <v>-14</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f>-20+R3*2</f>
         <v>-16</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ref="A42:R42" si="1">-20+A4*2</f>
+        <f>-20+A4*2</f>
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f>-20+B4*2</f>
         <v>30</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f>-20+C4*2</f>
         <v>24</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f>-20+D4*2</f>
         <v>20</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>-20+E4*2</f>
         <v>16</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f>-20+F4*2</f>
         <v>14</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f>-20+G4*2</f>
         <v>10</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f>-20+H4*2</f>
         <v>8</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f>-20+I4*2</f>
         <v>6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f>-20+J4*2</f>
         <v>4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f>-20+K4*2</f>
         <v>2</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f>-20+L4*2</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f>-20+M4*2</f>
         <v>-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f>-20+N4*2</f>
         <v>-4</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
+        <f>-20+O4*2</f>
         <v>-4</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f>-20+P4*2</f>
         <v>-6</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="1"/>
+        <f>-20+Q4*2</f>
         <v>-8</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f>-20+R4*2</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" ref="A43:R43" si="2">-20+A5*2</f>
+        <f>-20+A5*2</f>
         <v>44</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f>-20+B5*2</f>
         <v>34</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f>-20+C5*2</f>
         <v>28</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f>-20+D5*2</f>
         <v>22</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f>-20+E5*2</f>
         <v>18</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f>-20+F5*2</f>
         <v>16</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f>-20+G5*2</f>
         <v>14</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f>-20+H5*2</f>
         <v>10</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f>-20+I5*2</f>
         <v>8</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f>-20+J5*2</f>
         <v>6</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f>-20+K5*2</f>
         <v>4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f>-20+L5*2</f>
         <v>4</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f>-20+M5*2</f>
         <v>2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f>-20+N5*2</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f>-20+O5*2</f>
         <v>-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f>-20+P5*2</f>
         <v>-4</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
+        <f>-20+Q5*2</f>
         <v>-6</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f>-20+R5*2</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" ref="A44:R44" si="3">-20+A6*2</f>
+        <f>-20+A6*2</f>
         <v>50</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f>-20+B6*2</f>
         <v>36</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f>-20+C6*2</f>
         <v>30</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f>-20+D6*2</f>
         <v>24</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f>-20+E6*2</f>
         <v>22</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f>-20+F6*2</f>
         <v>18</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f>-20+G6*2</f>
         <v>16</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f>-20+H6*2</f>
         <v>12</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f>-20+I6*2</f>
         <v>10</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f>-20+J6*2</f>
         <v>8</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f>-20+K6*2</f>
         <v>8</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
+        <f>-20+L6*2</f>
         <v>6</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f>-20+M6*2</f>
         <v>4</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
+        <f>-20+N6*2</f>
         <v>2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f>-20+O6*2</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f>-20+P6*2</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f>-20+Q6*2</f>
         <v>-2</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
+        <f>-20+R6*2</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ref="A45:R45" si="4">-20+A7*2</f>
+        <f>-20+A7*2</f>
         <v>50</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f>-20+B7*2</f>
         <v>40</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f>-20+C7*2</f>
         <v>32</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f>-20+D7*2</f>
         <v>26</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f>-20+E7*2</f>
         <v>24</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f>-20+F7*2</f>
         <v>20</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f>-20+G7*2</f>
         <v>18</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f>-20+H7*2</f>
         <v>14</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f>-20+I7*2</f>
         <v>12</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f>-20+J7*2</f>
         <v>10</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
+        <f>-20+K7*2</f>
         <v>10</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f>-20+L7*2</f>
         <v>8</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
+        <f>-20+M7*2</f>
         <v>6</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f>-20+N7*2</f>
         <v>4</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
+        <f>-20+O7*2</f>
         <v>2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
+        <f>-20+P7*2</f>
         <v>2</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f>-20+Q7*2</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="4"/>
+        <f>-20+R7*2</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" ref="A46:R46" si="5">-20+A8*2</f>
+        <f>-20+A8*2</f>
         <v>50</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f>-20+B8*2</f>
         <v>42</v>
       </c>
       <c r="C46">
-        <f t="shared" si="5"/>
+        <f>-20+C8*2</f>
         <v>34</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f>-20+D8*2</f>
         <v>28</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f>-20+E8*2</f>
         <v>24</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f>-20+F8*2</f>
         <v>22</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f>-20+G8*2</f>
         <v>18</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f>-20+H8*2</f>
         <v>16</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f>-20+I8*2</f>
         <v>14</v>
       </c>
       <c r="J46">
-        <f t="shared" si="5"/>
+        <f>-20+J8*2</f>
         <v>12</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
+        <f>-20+K8*2</f>
         <v>10</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
+        <f>-20+L8*2</f>
         <v>8</v>
       </c>
       <c r="M46">
-        <f t="shared" si="5"/>
+        <f>-20+M8*2</f>
         <v>8</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
+        <f>-20+N8*2</f>
         <v>6</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
+        <f>-20+O8*2</f>
         <v>4</v>
       </c>
       <c r="P46">
-        <f t="shared" si="5"/>
+        <f>-20+P8*2</f>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="5"/>
+        <f>-20+Q8*2</f>
         <v>2</v>
       </c>
       <c r="R46">
-        <f t="shared" si="5"/>
+        <f>-20+R8*2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" ref="A47:R47" si="6">-20+A9*2</f>
+        <f>-20+A9*2</f>
         <v>50</v>
       </c>
       <c r="B47">
-        <f t="shared" si="6"/>
+        <f>-20+B9*2</f>
         <v>44</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f>-20+C9*2</f>
         <v>36</v>
       </c>
       <c r="D47">
-        <f t="shared" si="6"/>
+        <f>-20+D9*2</f>
         <v>30</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f>-20+E9*2</f>
         <v>26</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f>-20+F9*2</f>
         <v>22</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f>-20+G9*2</f>
         <v>20</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f>-20+H9*2</f>
         <v>18</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
+        <f>-20+I9*2</f>
         <v>16</v>
       </c>
       <c r="J47">
-        <f t="shared" si="6"/>
+        <f>-20+J9*2</f>
         <v>14</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
+        <f>-20+K9*2</f>
         <v>12</v>
       </c>
       <c r="L47">
-        <f t="shared" si="6"/>
+        <f>-20+L9*2</f>
         <v>10</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f>-20+M9*2</f>
         <v>8</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f>-20+N9*2</f>
         <v>8</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
+        <f>-20+O9*2</f>
         <v>6</v>
       </c>
       <c r="P47">
-        <f t="shared" si="6"/>
+        <f>-20+P9*2</f>
         <v>4</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f>-20+Q9*2</f>
         <v>4</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
+        <f>-20+R9*2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" ref="A48:R48" si="7">-20+A10*2</f>
+        <f>-20+A10*2</f>
         <v>50</v>
       </c>
       <c r="B48">
-        <f t="shared" si="7"/>
+        <f>-20+B10*2</f>
         <v>48</v>
       </c>
       <c r="C48">
-        <f t="shared" si="7"/>
+        <f>-20+C10*2</f>
         <v>38</v>
       </c>
       <c r="D48">
-        <f t="shared" si="7"/>
+        <f>-20+D10*2</f>
         <v>32</v>
       </c>
       <c r="E48">
-        <f t="shared" si="7"/>
+        <f>-20+E10*2</f>
         <v>28</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f>-20+F10*2</f>
         <v>24</v>
       </c>
       <c r="G48">
-        <f t="shared" si="7"/>
+        <f>-20+G10*2</f>
         <v>22</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
+        <f>-20+H10*2</f>
         <v>20</v>
       </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f>-20+I10*2</f>
         <v>18</v>
       </c>
       <c r="J48">
-        <f t="shared" si="7"/>
+        <f>-20+J10*2</f>
         <v>16</v>
       </c>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f>-20+K10*2</f>
         <v>14</v>
       </c>
       <c r="L48">
-        <f t="shared" si="7"/>
+        <f>-20+L10*2</f>
         <v>12</v>
       </c>
       <c r="M48">
-        <f t="shared" si="7"/>
+        <f>-20+M10*2</f>
         <v>10</v>
       </c>
       <c r="N48">
-        <f t="shared" si="7"/>
+        <f>-20+N10*2</f>
         <v>8</v>
       </c>
       <c r="O48">
-        <f t="shared" si="7"/>
+        <f>-20+O10*2</f>
         <v>8</v>
       </c>
       <c r="P48">
-        <f t="shared" si="7"/>
+        <f>-20+P10*2</f>
         <v>6</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="7"/>
+        <f>-20+Q10*2</f>
         <v>4</v>
       </c>
       <c r="R48">
-        <f t="shared" si="7"/>
+        <f>-20+R10*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" ref="A49:R49" si="8">-20+A11*2</f>
+        <f>-20+A11*2</f>
         <v>50</v>
       </c>
       <c r="B49">
-        <f t="shared" si="8"/>
+        <f>-20+B11*2</f>
         <v>50</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
+        <f>-20+C11*2</f>
         <v>40</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f>-20+D11*2</f>
         <v>34</v>
       </c>
       <c r="E49">
-        <f t="shared" si="8"/>
+        <f>-20+E11*2</f>
         <v>30</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
+        <f>-20+F11*2</f>
         <v>26</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f>-20+G11*2</f>
         <v>22</v>
       </c>
       <c r="H49">
-        <f t="shared" si="8"/>
+        <f>-20+H11*2</f>
         <v>20</v>
       </c>
       <c r="I49">
-        <f t="shared" si="8"/>
+        <f>-20+I11*2</f>
         <v>18</v>
       </c>
       <c r="J49">
-        <f t="shared" si="8"/>
+        <f>-20+J11*2</f>
         <v>16</v>
       </c>
       <c r="K49">
-        <f t="shared" si="8"/>
+        <f>-20+K11*2</f>
         <v>14</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
+        <f>-20+L11*2</f>
         <v>12</v>
       </c>
       <c r="M49">
-        <f t="shared" si="8"/>
+        <f>-20+M11*2</f>
         <v>12</v>
       </c>
       <c r="N49">
-        <f t="shared" si="8"/>
+        <f>-20+N11*2</f>
         <v>10</v>
       </c>
       <c r="O49">
-        <f t="shared" si="8"/>
+        <f>-20+O11*2</f>
         <v>8</v>
       </c>
       <c r="P49">
-        <f t="shared" si="8"/>
+        <f>-20+P11*2</f>
         <v>6</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="8"/>
+        <f>-20+Q11*2</f>
         <v>6</v>
       </c>
       <c r="R49">
-        <f t="shared" si="8"/>
+        <f>-20+R11*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" ref="A50:R50" si="9">-20+A12*2</f>
+        <f>-20+A12*2</f>
         <v>50</v>
       </c>
       <c r="B50">
-        <f t="shared" si="9"/>
+        <f>-20+B12*2</f>
         <v>50</v>
       </c>
       <c r="C50">
-        <f t="shared" si="9"/>
+        <f>-20+C12*2</f>
         <v>42</v>
       </c>
       <c r="D50">
-        <f t="shared" si="9"/>
+        <f>-20+D12*2</f>
         <v>34</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f>-20+E12*2</f>
         <v>30</v>
       </c>
       <c r="F50">
-        <f t="shared" si="9"/>
+        <f>-20+F12*2</f>
         <v>26</v>
       </c>
       <c r="G50">
-        <f t="shared" si="9"/>
+        <f>-20+G12*2</f>
         <v>24</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f>-20+H12*2</f>
         <v>22</v>
       </c>
       <c r="I50">
-        <f t="shared" si="9"/>
+        <f>-20+I12*2</f>
         <v>18</v>
       </c>
       <c r="J50">
-        <f t="shared" si="9"/>
+        <f>-20+J12*2</f>
         <v>18</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
+        <f>-20+K12*2</f>
         <v>16</v>
       </c>
       <c r="L50">
-        <f t="shared" si="9"/>
+        <f>-20+L12*2</f>
         <v>14</v>
       </c>
       <c r="M50">
-        <f t="shared" si="9"/>
+        <f>-20+M12*2</f>
         <v>12</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f>-20+N12*2</f>
         <v>10</v>
       </c>
       <c r="O50">
-        <f t="shared" si="9"/>
+        <f>-20+O12*2</f>
         <v>10</v>
       </c>
       <c r="P50">
-        <f t="shared" si="9"/>
+        <f>-20+P12*2</f>
         <v>8</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="9"/>
+        <f>-20+Q12*2</f>
         <v>6</v>
       </c>
       <c r="R50">
-        <f t="shared" si="9"/>
+        <f>-20+R12*2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" ref="A51:R51" si="10">-20+A13*2</f>
+        <f>-20+A13*2</f>
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="10"/>
+        <f>-20+B13*2</f>
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="10"/>
+        <f>-20+C13*2</f>
         <v>44</v>
       </c>
       <c r="D51">
-        <f t="shared" si="10"/>
+        <f>-20+D13*2</f>
         <v>36</v>
       </c>
       <c r="E51">
-        <f t="shared" si="10"/>
+        <f>-20+E13*2</f>
         <v>32</v>
       </c>
       <c r="F51">
-        <f t="shared" si="10"/>
+        <f>-20+F13*2</f>
         <v>28</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f>-20+G13*2</f>
         <v>24</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
+        <f>-20+H13*2</f>
         <v>22</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f>-20+I13*2</f>
         <v>20</v>
       </c>
       <c r="J51">
-        <f t="shared" si="10"/>
+        <f>-20+J13*2</f>
         <v>18</v>
       </c>
       <c r="K51">
-        <f t="shared" si="10"/>
+        <f>-20+K13*2</f>
         <v>16</v>
       </c>
       <c r="L51">
-        <f t="shared" si="10"/>
+        <f>-20+L13*2</f>
         <v>14</v>
       </c>
       <c r="M51">
-        <f t="shared" si="10"/>
+        <f>-20+M13*2</f>
         <v>14</v>
       </c>
       <c r="N51">
-        <f t="shared" si="10"/>
+        <f>-20+N13*2</f>
         <v>12</v>
       </c>
       <c r="O51">
-        <f t="shared" si="10"/>
+        <f>-20+O13*2</f>
         <v>10</v>
       </c>
       <c r="P51">
-        <f t="shared" si="10"/>
+        <f>-20+P13*2</f>
         <v>10</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="10"/>
+        <f>-20+Q13*2</f>
         <v>8</v>
       </c>
       <c r="R51">
-        <f t="shared" si="10"/>
+        <f>-20+R13*2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" ref="A52:R52" si="11">-20+A14*2</f>
+        <f>-20+A14*2</f>
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="11"/>
+        <f>-20+B14*2</f>
         <v>50</v>
       </c>
       <c r="C52">
-        <f t="shared" si="11"/>
+        <f>-20+C14*2</f>
         <v>46</v>
       </c>
       <c r="D52">
-        <f t="shared" si="11"/>
+        <f>-20+D14*2</f>
         <v>38</v>
       </c>
       <c r="E52">
-        <f t="shared" si="11"/>
+        <f>-20+E14*2</f>
         <v>32</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f>-20+F14*2</f>
         <v>30</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f>-20+G14*2</f>
         <v>26</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f>-20+H14*2</f>
         <v>24</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f>-20+I14*2</f>
         <v>22</v>
       </c>
       <c r="J52">
-        <f t="shared" si="11"/>
+        <f>-20+J14*2</f>
         <v>20</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f>-20+K14*2</f>
         <v>18</v>
       </c>
       <c r="L52">
-        <f t="shared" si="11"/>
+        <f>-20+L14*2</f>
         <v>16</v>
       </c>
       <c r="M52">
-        <f t="shared" si="11"/>
+        <f>-20+M14*2</f>
         <v>14</v>
       </c>
       <c r="N52">
-        <f t="shared" si="11"/>
+        <f>-20+N14*2</f>
         <v>12</v>
       </c>
       <c r="O52">
-        <f t="shared" si="11"/>
+        <f>-20+O14*2</f>
         <v>12</v>
       </c>
       <c r="P52">
-        <f t="shared" si="11"/>
+        <f>-20+P14*2</f>
         <v>10</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="11"/>
+        <f>-20+Q14*2</f>
         <v>8</v>
       </c>
       <c r="R52">
-        <f t="shared" si="11"/>
+        <f>-20+R14*2</f>
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" ref="A53:R53" si="12">-20+A15*2</f>
+        <f>-20+A15*2</f>
         <v>50</v>
       </c>
       <c r="B53">
-        <f t="shared" si="12"/>
+        <f>-20+B15*2</f>
         <v>50</v>
       </c>
       <c r="C53">
-        <f t="shared" si="12"/>
+        <f>-20+C15*2</f>
         <v>46</v>
       </c>
       <c r="D53">
-        <f t="shared" si="12"/>
+        <f>-20+D15*2</f>
         <v>38</v>
       </c>
       <c r="E53">
-        <f t="shared" si="12"/>
+        <f>-20+E15*2</f>
         <v>34</v>
       </c>
       <c r="F53">
-        <f t="shared" si="12"/>
+        <f>-20+F15*2</f>
         <v>30</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f>-20+G15*2</f>
         <v>26</v>
       </c>
       <c r="H53">
-        <f t="shared" si="12"/>
+        <f>-20+H15*2</f>
         <v>24</v>
       </c>
       <c r="I53">
-        <f t="shared" si="12"/>
+        <f>-20+I15*2</f>
         <v>22</v>
       </c>
       <c r="J53">
-        <f t="shared" si="12"/>
+        <f>-20+J15*2</f>
         <v>20</v>
       </c>
       <c r="K53">
-        <f t="shared" si="12"/>
+        <f>-20+K15*2</f>
         <v>18</v>
       </c>
       <c r="L53">
-        <f t="shared" si="12"/>
+        <f>-20+L15*2</f>
         <v>16</v>
       </c>
       <c r="M53">
-        <f t="shared" si="12"/>
+        <f>-20+M15*2</f>
         <v>16</v>
       </c>
       <c r="N53">
-        <f t="shared" si="12"/>
+        <f>-20+N15*2</f>
         <v>14</v>
       </c>
       <c r="O53">
-        <f t="shared" si="12"/>
+        <f>-20+O15*2</f>
         <v>12</v>
       </c>
       <c r="P53">
-        <f t="shared" si="12"/>
+        <f>-20+P15*2</f>
         <v>10</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="12"/>
+        <f>-20+Q15*2</f>
         <v>10</v>
       </c>
       <c r="R53">
-        <f t="shared" si="12"/>
+        <f>-20+R15*2</f>
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" ref="A54:R54" si="13">-20+A16*2</f>
+        <f>-20+A16*2</f>
         <v>50</v>
       </c>
       <c r="B54">
-        <f t="shared" si="13"/>
+        <f>-20+B16*2</f>
         <v>50</v>
       </c>
       <c r="C54">
-        <f t="shared" si="13"/>
+        <f>-20+C16*2</f>
         <v>48</v>
       </c>
       <c r="D54">
-        <f t="shared" si="13"/>
+        <f>-20+D16*2</f>
         <v>40</v>
       </c>
       <c r="E54">
-        <f t="shared" si="13"/>
+        <f>-20+E16*2</f>
         <v>34</v>
       </c>
       <c r="F54">
-        <f t="shared" si="13"/>
+        <f>-20+F16*2</f>
         <v>30</v>
       </c>
       <c r="G54">
-        <f t="shared" si="13"/>
+        <f>-20+G16*2</f>
         <v>28</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f>-20+H16*2</f>
         <v>26</v>
       </c>
       <c r="I54">
-        <f t="shared" si="13"/>
+        <f>-20+I16*2</f>
         <v>24</v>
       </c>
       <c r="J54">
-        <f t="shared" si="13"/>
+        <f>-20+J16*2</f>
         <v>22</v>
       </c>
       <c r="K54">
-        <f t="shared" si="13"/>
+        <f>-20+K16*2</f>
         <v>20</v>
       </c>
       <c r="L54">
-        <f t="shared" si="13"/>
+        <f>-20+L16*2</f>
         <v>18</v>
       </c>
       <c r="M54">
-        <f t="shared" si="13"/>
+        <f>-20+M16*2</f>
         <v>16</v>
       </c>
       <c r="N54">
-        <f t="shared" si="13"/>
+        <f>-20+N16*2</f>
         <v>14</v>
       </c>
       <c r="O54">
-        <f t="shared" si="13"/>
+        <f>-20+O16*2</f>
         <v>12</v>
       </c>
       <c r="P54">
-        <f t="shared" si="13"/>
+        <f>-20+P16*2</f>
         <v>12</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="13"/>
+        <f>-20+Q16*2</f>
         <v>10</v>
       </c>
       <c r="R54">
-        <f t="shared" si="13"/>
+        <f>-20+R16*2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" ref="A55:R55" si="14">-20+A17*2</f>
+        <f>-20+A17*2</f>
         <v>50</v>
       </c>
       <c r="B55">
-        <f t="shared" si="14"/>
+        <f>-20+B17*2</f>
         <v>50</v>
       </c>
       <c r="C55">
-        <f t="shared" si="14"/>
+        <f>-20+C17*2</f>
         <v>50</v>
       </c>
       <c r="D55">
-        <f t="shared" si="14"/>
+        <f>-20+D17*2</f>
         <v>42</v>
       </c>
       <c r="E55">
-        <f t="shared" si="14"/>
+        <f>-20+E17*2</f>
         <v>36</v>
       </c>
       <c r="F55">
-        <f t="shared" si="14"/>
+        <f>-20+F17*2</f>
         <v>32</v>
       </c>
       <c r="G55">
-        <f t="shared" si="14"/>
+        <f>-20+G17*2</f>
         <v>28</v>
       </c>
       <c r="H55">
-        <f t="shared" si="14"/>
+        <f>-20+H17*2</f>
         <v>26</v>
       </c>
       <c r="I55">
-        <f t="shared" si="14"/>
+        <f>-20+I17*2</f>
         <v>24</v>
       </c>
       <c r="J55">
-        <f t="shared" si="14"/>
+        <f>-20+J17*2</f>
         <v>22</v>
       </c>
       <c r="K55">
-        <f t="shared" si="14"/>
+        <f>-20+K17*2</f>
         <v>20</v>
       </c>
       <c r="L55">
-        <f t="shared" si="14"/>
+        <f>-20+L17*2</f>
         <v>18</v>
       </c>
       <c r="M55">
-        <f t="shared" si="14"/>
+        <f>-20+M17*2</f>
         <v>16</v>
       </c>
       <c r="N55">
-        <f t="shared" si="14"/>
+        <f>-20+N17*2</f>
         <v>16</v>
       </c>
       <c r="O55">
-        <f t="shared" si="14"/>
+        <f>-20+O17*2</f>
         <v>14</v>
       </c>
       <c r="P55">
-        <f t="shared" si="14"/>
+        <f>-20+P17*2</f>
         <v>12</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="14"/>
+        <f>-20+Q17*2</f>
         <v>12</v>
       </c>
       <c r="R55">
-        <f t="shared" si="14"/>
+        <f>-20+R17*2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" ref="A56:R56" si="15">-20+A18*2</f>
+        <f>-20+A18*2</f>
         <v>50</v>
       </c>
       <c r="B56">
-        <f t="shared" si="15"/>
+        <f>-20+B18*2</f>
         <v>50</v>
       </c>
       <c r="C56">
-        <f t="shared" si="15"/>
+        <f>-20+C18*2</f>
         <v>50</v>
       </c>
       <c r="D56">
-        <f t="shared" si="15"/>
+        <f>-20+D18*2</f>
         <v>42</v>
       </c>
       <c r="E56">
-        <f t="shared" si="15"/>
+        <f>-20+E18*2</f>
         <v>36</v>
       </c>
       <c r="F56">
-        <f t="shared" si="15"/>
+        <f>-20+F18*2</f>
         <v>32</v>
       </c>
       <c r="G56">
-        <f t="shared" si="15"/>
+        <f>-20+G18*2</f>
         <v>30</v>
       </c>
       <c r="H56">
-        <f t="shared" si="15"/>
+        <f>-20+H18*2</f>
         <v>26</v>
       </c>
       <c r="I56">
-        <f t="shared" si="15"/>
+        <f>-20+I18*2</f>
         <v>24</v>
       </c>
       <c r="J56">
-        <f t="shared" si="15"/>
+        <f>-20+J18*2</f>
         <v>22</v>
       </c>
       <c r="K56">
-        <f t="shared" si="15"/>
+        <f>-20+K18*2</f>
         <v>20</v>
       </c>
       <c r="L56">
-        <f t="shared" si="15"/>
+        <f>-20+L18*2</f>
         <v>18</v>
       </c>
       <c r="M56">
-        <f t="shared" si="15"/>
+        <f>-20+M18*2</f>
         <v>18</v>
       </c>
       <c r="N56">
-        <f t="shared" si="15"/>
+        <f>-20+N18*2</f>
         <v>16</v>
       </c>
       <c r="O56">
-        <f t="shared" si="15"/>
+        <f>-20+O18*2</f>
         <v>14</v>
       </c>
       <c r="P56">
-        <f t="shared" si="15"/>
+        <f>-20+P18*2</f>
         <v>14</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
+        <f>-20+Q18*2</f>
         <v>12</v>
       </c>
       <c r="R56">
-        <f t="shared" si="15"/>
+        <f>-20+R18*2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" ref="A57:R57" si="16">-20+A19*2</f>
+        <f>-20+A19*2</f>
         <v>50</v>
       </c>
       <c r="B57">
-        <f t="shared" si="16"/>
+        <f>-20+B19*2</f>
         <v>50</v>
       </c>
       <c r="C57">
-        <f t="shared" si="16"/>
+        <f>-20+C19*2</f>
         <v>50</v>
       </c>
       <c r="D57">
-        <f t="shared" si="16"/>
+        <f>-20+D19*2</f>
         <v>44</v>
       </c>
       <c r="E57">
-        <f t="shared" si="16"/>
+        <f>-20+E19*2</f>
         <v>38</v>
       </c>
       <c r="F57">
-        <f t="shared" si="16"/>
+        <f>-20+F19*2</f>
         <v>34</v>
       </c>
       <c r="G57">
-        <f t="shared" si="16"/>
+        <f>-20+G19*2</f>
         <v>30</v>
       </c>
       <c r="H57">
-        <f t="shared" si="16"/>
+        <f>-20+H19*2</f>
         <v>28</v>
       </c>
       <c r="I57">
-        <f t="shared" si="16"/>
+        <f>-20+I19*2</f>
         <v>26</v>
       </c>
       <c r="J57">
-        <f t="shared" si="16"/>
+        <f>-20+J19*2</f>
         <v>24</v>
       </c>
       <c r="K57">
-        <f t="shared" si="16"/>
+        <f>-20+K19*2</f>
         <v>22</v>
       </c>
       <c r="L57">
-        <f t="shared" si="16"/>
+        <f>-20+L19*2</f>
         <v>20</v>
       </c>
       <c r="M57">
-        <f t="shared" si="16"/>
+        <f>-20+M19*2</f>
         <v>18</v>
       </c>
       <c r="N57">
-        <f t="shared" si="16"/>
+        <f>-20+N19*2</f>
         <v>16</v>
       </c>
       <c r="O57">
-        <f t="shared" si="16"/>
+        <f>-20+O19*2</f>
         <v>16</v>
       </c>
       <c r="P57">
-        <f t="shared" si="16"/>
+        <f>-20+P19*2</f>
         <v>14</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="16"/>
+        <f>-20+Q19*2</f>
         <v>12</v>
       </c>
       <c r="R57">
-        <f t="shared" si="16"/>
+        <f>-20+R19*2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" ref="A58:R58" si="17">-20+A20*2</f>
+        <f>-20+A20*2</f>
         <v>50</v>
       </c>
       <c r="B58">
-        <f t="shared" si="17"/>
+        <f>-20+B20*2</f>
         <v>50</v>
       </c>
       <c r="C58">
-        <f t="shared" si="17"/>
+        <f>-20+C20*2</f>
         <v>50</v>
       </c>
       <c r="D58">
-        <f t="shared" si="17"/>
+        <f>-20+D20*2</f>
         <v>46</v>
       </c>
       <c r="E58">
-        <f t="shared" si="17"/>
+        <f>-20+E20*2</f>
         <v>40</v>
       </c>
       <c r="F58">
-        <f t="shared" si="17"/>
+        <f>-20+F20*2</f>
         <v>34</v>
       </c>
       <c r="G58">
-        <f t="shared" si="17"/>
+        <f>-20+G20*2</f>
         <v>32</v>
       </c>
       <c r="H58">
-        <f t="shared" si="17"/>
+        <f>-20+H20*2</f>
         <v>28</v>
       </c>
       <c r="I58">
-        <f t="shared" si="17"/>
+        <f>-20+I20*2</f>
         <v>26</v>
       </c>
       <c r="J58">
-        <f t="shared" si="17"/>
+        <f>-20+J20*2</f>
         <v>24</v>
       </c>
       <c r="K58">
-        <f t="shared" si="17"/>
+        <f>-20+K20*2</f>
         <v>22</v>
       </c>
       <c r="L58">
-        <f t="shared" si="17"/>
+        <f>-20+L20*2</f>
         <v>20</v>
       </c>
       <c r="M58">
-        <f t="shared" si="17"/>
+        <f>-20+M20*2</f>
         <v>18</v>
       </c>
       <c r="N58">
-        <f t="shared" si="17"/>
+        <f>-20+N20*2</f>
         <v>18</v>
       </c>
       <c r="O58">
-        <f t="shared" si="17"/>
+        <f>-20+O20*2</f>
         <v>16</v>
       </c>
       <c r="P58">
-        <f t="shared" si="17"/>
+        <f>-20+P20*2</f>
         <v>14</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="17"/>
+        <f>-20+Q20*2</f>
         <v>14</v>
       </c>
       <c r="R58">
-        <f t="shared" si="17"/>
+        <f>-20+R20*2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" ref="A59:R59" si="18">-20+A21*2</f>
+        <f>-20+A21*2</f>
         <v>50</v>
       </c>
       <c r="B59">
-        <f t="shared" si="18"/>
+        <f>-20+B21*2</f>
         <v>50</v>
       </c>
       <c r="C59">
-        <f t="shared" si="18"/>
+        <f>-20+C21*2</f>
         <v>50</v>
       </c>
       <c r="D59">
-        <f t="shared" si="18"/>
+        <f>-20+D21*2</f>
         <v>46</v>
       </c>
       <c r="E59">
-        <f t="shared" si="18"/>
+        <f>-20+E21*2</f>
         <v>40</v>
       </c>
       <c r="F59">
-        <f t="shared" si="18"/>
+        <f>-20+F21*2</f>
         <v>36</v>
       </c>
       <c r="G59">
-        <f t="shared" si="18"/>
+        <f>-20+G21*2</f>
         <v>32</v>
       </c>
       <c r="H59">
-        <f t="shared" si="18"/>
+        <f>-20+H21*2</f>
         <v>30</v>
       </c>
       <c r="I59">
-        <f t="shared" si="18"/>
+        <f>-20+I21*2</f>
         <v>26</v>
       </c>
       <c r="J59">
-        <f t="shared" si="18"/>
+        <f>-20+J21*2</f>
         <v>24</v>
       </c>
       <c r="K59">
-        <f t="shared" si="18"/>
+        <f>-20+K21*2</f>
         <v>22</v>
       </c>
       <c r="L59">
-        <f t="shared" si="18"/>
+        <f>-20+L21*2</f>
         <v>20</v>
       </c>
       <c r="M59">
-        <f t="shared" si="18"/>
+        <f>-20+M21*2</f>
         <v>20</v>
       </c>
       <c r="N59">
-        <f t="shared" si="18"/>
+        <f>-20+N21*2</f>
         <v>18</v>
       </c>
       <c r="O59">
-        <f t="shared" si="18"/>
+        <f>-20+O21*2</f>
         <v>16</v>
       </c>
       <c r="P59">
-        <f t="shared" si="18"/>
+        <f>-20+P21*2</f>
         <v>14</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="18"/>
+        <f>-20+Q21*2</f>
         <v>14</v>
       </c>
       <c r="R59">
-        <f t="shared" si="18"/>
+        <f>-20+R21*2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" ref="A60:R60" si="19">-20+A22*2</f>
+        <f>-20+A22*2</f>
         <v>50</v>
       </c>
       <c r="B60">
-        <f t="shared" si="19"/>
+        <f>-20+B22*2</f>
         <v>50</v>
       </c>
       <c r="C60">
-        <f t="shared" si="19"/>
+        <f>-20+C22*2</f>
         <v>50</v>
       </c>
       <c r="D60">
-        <f t="shared" si="19"/>
+        <f>-20+D22*2</f>
         <v>48</v>
       </c>
       <c r="E60">
-        <f t="shared" si="19"/>
+        <f>-20+E22*2</f>
         <v>42</v>
       </c>
       <c r="F60">
-        <f t="shared" si="19"/>
+        <f>-20+F22*2</f>
         <v>36</v>
       </c>
       <c r="G60">
-        <f t="shared" si="19"/>
+        <f>-20+G22*2</f>
         <v>32</v>
       </c>
       <c r="H60">
-        <f t="shared" si="19"/>
+        <f>-20+H22*2</f>
         <v>30</v>
       </c>
       <c r="I60">
-        <f t="shared" si="19"/>
+        <f>-20+I22*2</f>
         <v>28</v>
       </c>
       <c r="J60">
-        <f t="shared" si="19"/>
+        <f>-20+J22*2</f>
         <v>26</v>
       </c>
       <c r="K60">
-        <f t="shared" si="19"/>
+        <f>-20+K22*2</f>
         <v>24</v>
       </c>
       <c r="L60">
-        <f t="shared" si="19"/>
+        <f>-20+L22*2</f>
         <v>22</v>
       </c>
       <c r="M60">
-        <f t="shared" si="19"/>
+        <f>-20+M22*2</f>
         <v>20</v>
       </c>
       <c r="N60">
-        <f t="shared" si="19"/>
+        <f>-20+N22*2</f>
         <v>18</v>
       </c>
       <c r="O60">
-        <f t="shared" si="19"/>
+        <f>-20+O22*2</f>
         <v>16</v>
       </c>
       <c r="P60">
-        <f t="shared" si="19"/>
+        <f>-20+P22*2</f>
         <v>16</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="19"/>
+        <f>-20+Q22*2</f>
         <v>14</v>
       </c>
       <c r="R60">
-        <f t="shared" si="19"/>
+        <f>-20+R22*2</f>
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" ref="A61:R61" si="20">-20+A23*2</f>
+        <f>-20+A23*2</f>
         <v>50</v>
       </c>
       <c r="B61">
-        <f t="shared" si="20"/>
+        <f>-20+B23*2</f>
         <v>50</v>
       </c>
       <c r="C61">
-        <f t="shared" si="20"/>
+        <f>-20+C23*2</f>
         <v>50</v>
       </c>
       <c r="D61">
-        <f t="shared" si="20"/>
+        <f>-20+D23*2</f>
         <v>50</v>
       </c>
       <c r="E61">
-        <f t="shared" si="20"/>
+        <f>-20+E23*2</f>
         <v>42</v>
       </c>
       <c r="F61">
-        <f t="shared" si="20"/>
+        <f>-20+F23*2</f>
         <v>38</v>
       </c>
       <c r="G61">
-        <f t="shared" si="20"/>
+        <f>-20+G23*2</f>
         <v>34</v>
       </c>
       <c r="H61">
-        <f t="shared" si="20"/>
+        <f>-20+H23*2</f>
         <v>30</v>
       </c>
       <c r="I61">
-        <f t="shared" si="20"/>
+        <f>-20+I23*2</f>
         <v>28</v>
       </c>
       <c r="J61">
-        <f t="shared" si="20"/>
+        <f>-20+J23*2</f>
         <v>26</v>
       </c>
       <c r="K61">
-        <f t="shared" si="20"/>
+        <f>-20+K23*2</f>
         <v>24</v>
       </c>
       <c r="L61">
-        <f t="shared" si="20"/>
+        <f>-20+L23*2</f>
         <v>22</v>
       </c>
       <c r="M61">
-        <f t="shared" si="20"/>
+        <f>-20+M23*2</f>
         <v>20</v>
       </c>
       <c r="N61">
-        <f t="shared" si="20"/>
+        <f>-20+N23*2</f>
         <v>18</v>
       </c>
       <c r="O61">
-        <f t="shared" si="20"/>
+        <f>-20+O23*2</f>
         <v>18</v>
       </c>
       <c r="P61">
-        <f t="shared" si="20"/>
+        <f>-20+P23*2</f>
         <v>16</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="20"/>
+        <f>-20+Q23*2</f>
         <v>14</v>
       </c>
       <c r="R61">
-        <f t="shared" si="20"/>
+        <f>-20+R23*2</f>
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" ref="A62:R62" si="21">-20+A24*2</f>
+        <f>-20+A24*2</f>
         <v>50</v>
       </c>
       <c r="B62">
-        <f t="shared" si="21"/>
+        <f>-20+B24*2</f>
         <v>50</v>
       </c>
       <c r="C62">
-        <f t="shared" si="21"/>
+        <f>-20+C24*2</f>
         <v>50</v>
       </c>
       <c r="D62">
-        <f t="shared" si="21"/>
+        <f>-20+D24*2</f>
         <v>50</v>
       </c>
       <c r="E62">
-        <f t="shared" si="21"/>
+        <f>-20+E24*2</f>
         <v>44</v>
       </c>
       <c r="F62">
-        <f t="shared" si="21"/>
+        <f>-20+F24*2</f>
         <v>38</v>
       </c>
       <c r="G62">
-        <f t="shared" si="21"/>
+        <f>-20+G24*2</f>
         <v>34</v>
       </c>
       <c r="H62">
-        <f t="shared" si="21"/>
+        <f>-20+H24*2</f>
         <v>32</v>
       </c>
       <c r="I62">
-        <f t="shared" si="21"/>
+        <f>-20+I24*2</f>
         <v>28</v>
       </c>
       <c r="J62">
-        <f t="shared" si="21"/>
+        <f>-20+J24*2</f>
         <v>26</v>
       </c>
       <c r="K62">
-        <f t="shared" si="21"/>
+        <f>-20+K24*2</f>
         <v>24</v>
       </c>
       <c r="L62">
-        <f t="shared" si="21"/>
+        <f>-20+L24*2</f>
         <v>22</v>
       </c>
       <c r="M62">
-        <f t="shared" si="21"/>
+        <f>-20+M24*2</f>
         <v>20</v>
       </c>
       <c r="N62">
-        <f t="shared" si="21"/>
+        <f>-20+N24*2</f>
         <v>20</v>
       </c>
       <c r="O62">
-        <f t="shared" si="21"/>
+        <f>-20+O24*2</f>
         <v>18</v>
       </c>
       <c r="P62">
-        <f t="shared" si="21"/>
+        <f>-20+P24*2</f>
         <v>16</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="21"/>
+        <f>-20+Q24*2</f>
         <v>16</v>
       </c>
       <c r="R62">
-        <f t="shared" si="21"/>
+        <f>-20+R24*2</f>
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" ref="A63:R63" si="22">-20+A25*2</f>
+        <f>-20+A25*2</f>
         <v>50</v>
       </c>
       <c r="B63">
-        <f t="shared" si="22"/>
+        <f>-20+B25*2</f>
         <v>50</v>
       </c>
       <c r="C63">
-        <f t="shared" si="22"/>
+        <f>-20+C25*2</f>
         <v>50</v>
       </c>
       <c r="D63">
-        <f t="shared" si="22"/>
+        <f>-20+D25*2</f>
         <v>50</v>
       </c>
       <c r="E63">
-        <f t="shared" si="22"/>
+        <f>-20+E25*2</f>
         <v>44</v>
       </c>
       <c r="F63">
-        <f t="shared" si="22"/>
+        <f>-20+F25*2</f>
         <v>38</v>
       </c>
       <c r="G63">
-        <f t="shared" si="22"/>
+        <f>-20+G25*2</f>
         <v>34</v>
       </c>
       <c r="H63">
-        <f t="shared" si="22"/>
+        <f>-20+H25*2</f>
         <v>32</v>
       </c>
       <c r="I63">
-        <f t="shared" si="22"/>
+        <f>-20+I25*2</f>
         <v>30</v>
       </c>
       <c r="J63">
-        <f t="shared" si="22"/>
+        <f>-20+J25*2</f>
         <v>26</v>
       </c>
       <c r="K63">
-        <f t="shared" si="22"/>
+        <f>-20+K25*2</f>
         <v>24</v>
       </c>
       <c r="L63">
-        <f t="shared" si="22"/>
+        <f>-20+L25*2</f>
         <v>24</v>
       </c>
       <c r="M63">
-        <f t="shared" si="22"/>
+        <f>-20+M25*2</f>
         <v>22</v>
       </c>
       <c r="N63">
-        <f t="shared" si="22"/>
+        <f>-20+N25*2</f>
         <v>20</v>
       </c>
       <c r="O63">
-        <f t="shared" si="22"/>
+        <f>-20+O25*2</f>
         <v>18</v>
       </c>
       <c r="P63">
-        <f t="shared" si="22"/>
+        <f>-20+P25*2</f>
         <v>18</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="22"/>
+        <f>-20+Q25*2</f>
         <v>16</v>
       </c>
       <c r="R63">
-        <f t="shared" si="22"/>
+        <f>-20+R25*2</f>
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" ref="A64:R64" si="23">-20+A26*2</f>
+        <f>-20+A26*2</f>
         <v>50</v>
       </c>
       <c r="B64">
-        <f t="shared" si="23"/>
+        <f>-20+B26*2</f>
         <v>50</v>
       </c>
       <c r="C64">
-        <f t="shared" si="23"/>
+        <f>-20+C26*2</f>
         <v>50</v>
       </c>
       <c r="D64">
-        <f t="shared" si="23"/>
+        <f>-20+D26*2</f>
         <v>50</v>
       </c>
       <c r="E64">
-        <f t="shared" si="23"/>
+        <f>-20+E26*2</f>
         <v>46</v>
       </c>
       <c r="F64">
-        <f t="shared" si="23"/>
+        <f>-20+F26*2</f>
         <v>40</v>
       </c>
       <c r="G64">
-        <f t="shared" si="23"/>
+        <f>-20+G26*2</f>
         <v>36</v>
       </c>
       <c r="H64">
-        <f t="shared" si="23"/>
+        <f>-20+H26*2</f>
         <v>32</v>
       </c>
       <c r="I64">
-        <f t="shared" si="23"/>
+        <f>-20+I26*2</f>
         <v>30</v>
       </c>
       <c r="J64">
-        <f t="shared" si="23"/>
+        <f>-20+J26*2</f>
         <v>28</v>
       </c>
       <c r="K64">
-        <f t="shared" si="23"/>
+        <f>-20+K26*2</f>
         <v>26</v>
       </c>
       <c r="L64">
-        <f t="shared" si="23"/>
+        <f>-20+L26*2</f>
         <v>24</v>
       </c>
       <c r="M64">
-        <f t="shared" si="23"/>
+        <f>-20+M26*2</f>
         <v>22</v>
       </c>
       <c r="N64">
-        <f t="shared" si="23"/>
+        <f>-20+N26*2</f>
         <v>20</v>
       </c>
       <c r="O64">
-        <f t="shared" si="23"/>
+        <f>-20+O26*2</f>
         <v>18</v>
       </c>
       <c r="P64">
-        <f t="shared" si="23"/>
+        <f>-20+P26*2</f>
         <v>18</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="23"/>
+        <f>-20+Q26*2</f>
         <v>16</v>
       </c>
       <c r="R64">
-        <f t="shared" si="23"/>
+        <f>-20+R26*2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" ref="A65:R65" si="24">-20+A27*2</f>
+        <f>-20+A27*2</f>
         <v>50</v>
       </c>
       <c r="B65">
-        <f t="shared" si="24"/>
+        <f>-20+B27*2</f>
         <v>50</v>
       </c>
       <c r="C65">
-        <f t="shared" si="24"/>
+        <f>-20+C27*2</f>
         <v>50</v>
       </c>
       <c r="D65">
-        <f t="shared" si="24"/>
+        <f>-20+D27*2</f>
         <v>50</v>
       </c>
       <c r="E65">
-        <f t="shared" si="24"/>
+        <f>-20+E27*2</f>
         <v>46</v>
       </c>
       <c r="F65">
-        <f t="shared" si="24"/>
+        <f>-20+F27*2</f>
         <v>40</v>
       </c>
       <c r="G65">
-        <f t="shared" si="24"/>
+        <f>-20+G27*2</f>
         <v>36</v>
       </c>
       <c r="H65">
-        <f t="shared" si="24"/>
+        <f>-20+H27*2</f>
         <v>32</v>
       </c>
       <c r="I65">
-        <f t="shared" si="24"/>
+        <f>-20+I27*2</f>
         <v>30</v>
       </c>
       <c r="J65">
-        <f t="shared" si="24"/>
+        <f>-20+J27*2</f>
         <v>28</v>
       </c>
       <c r="K65">
-        <f t="shared" si="24"/>
+        <f>-20+K27*2</f>
         <v>26</v>
       </c>
       <c r="L65">
-        <f t="shared" si="24"/>
+        <f>-20+L27*2</f>
         <v>24</v>
       </c>
       <c r="M65">
-        <f t="shared" si="24"/>
+        <f>-20+M27*2</f>
         <v>22</v>
       </c>
       <c r="N65">
-        <f t="shared" si="24"/>
+        <f>-20+N27*2</f>
         <v>20</v>
       </c>
       <c r="O65">
-        <f t="shared" si="24"/>
+        <f>-20+O27*2</f>
         <v>20</v>
       </c>
       <c r="P65">
-        <f t="shared" si="24"/>
+        <f>-20+P27*2</f>
         <v>18</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="24"/>
+        <f>-20+Q27*2</f>
         <v>16</v>
       </c>
       <c r="R65">
-        <f t="shared" si="24"/>
+        <f>-20+R27*2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" ref="A66:R66" si="25">-20+A28*2</f>
+        <f>-20+A28*2</f>
         <v>50</v>
       </c>
       <c r="B66">
-        <f t="shared" si="25"/>
+        <f>-20+B28*2</f>
         <v>50</v>
       </c>
       <c r="C66">
-        <f t="shared" si="25"/>
+        <f>-20+C28*2</f>
         <v>50</v>
       </c>
       <c r="D66">
-        <f t="shared" si="25"/>
+        <f>-20+D28*2</f>
         <v>50</v>
       </c>
       <c r="E66">
-        <f t="shared" si="25"/>
+        <f>-20+E28*2</f>
         <v>48</v>
       </c>
       <c r="F66">
-        <f t="shared" si="25"/>
+        <f>-20+F28*2</f>
         <v>42</v>
       </c>
       <c r="G66">
-        <f t="shared" si="25"/>
+        <f>-20+G28*2</f>
         <v>36</v>
       </c>
       <c r="H66">
-        <f t="shared" si="25"/>
+        <f>-20+H28*2</f>
         <v>34</v>
       </c>
       <c r="I66">
-        <f t="shared" si="25"/>
+        <f>-20+I28*2</f>
         <v>30</v>
       </c>
       <c r="J66">
-        <f t="shared" si="25"/>
+        <f>-20+J28*2</f>
         <v>28</v>
       </c>
       <c r="K66">
-        <f t="shared" si="25"/>
+        <f>-20+K28*2</f>
         <v>26</v>
       </c>
       <c r="L66">
-        <f t="shared" si="25"/>
+        <f>-20+L28*2</f>
         <v>24</v>
       </c>
       <c r="M66">
-        <f t="shared" si="25"/>
+        <f>-20+M28*2</f>
         <v>22</v>
       </c>
       <c r="N66">
-        <f t="shared" si="25"/>
+        <f>-20+N28*2</f>
         <v>22</v>
       </c>
       <c r="O66">
-        <f t="shared" si="25"/>
+        <f>-20+O28*2</f>
         <v>20</v>
       </c>
       <c r="P66">
-        <f t="shared" si="25"/>
+        <f>-20+P28*2</f>
         <v>18</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="25"/>
+        <f>-20+Q28*2</f>
         <v>18</v>
       </c>
       <c r="R66">
-        <f t="shared" si="25"/>
+        <f>-20+R28*2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" ref="A67:R67" si="26">-20+A29*2</f>
+        <f>-20+A29*2</f>
         <v>50</v>
       </c>
       <c r="B67">
-        <f t="shared" si="26"/>
+        <f>-20+B29*2</f>
         <v>50</v>
       </c>
       <c r="C67">
-        <f t="shared" si="26"/>
+        <f>-20+C29*2</f>
         <v>50</v>
       </c>
       <c r="D67">
-        <f t="shared" si="26"/>
+        <f>-20+D29*2</f>
         <v>50</v>
       </c>
       <c r="E67">
-        <f t="shared" si="26"/>
+        <f>-20+E29*2</f>
         <v>48</v>
       </c>
       <c r="F67">
-        <f t="shared" si="26"/>
+        <f>-20+F29*2</f>
         <v>42</v>
       </c>
       <c r="G67">
-        <f t="shared" si="26"/>
+        <f>-20+G29*2</f>
         <v>38</v>
       </c>
       <c r="H67">
-        <f t="shared" si="26"/>
+        <f>-20+H29*2</f>
         <v>34</v>
       </c>
       <c r="I67">
-        <f t="shared" si="26"/>
+        <f>-20+I29*2</f>
         <v>32</v>
       </c>
       <c r="J67">
-        <f t="shared" si="26"/>
+        <f>-20+J29*2</f>
         <v>30</v>
       </c>
       <c r="K67">
-        <f t="shared" si="26"/>
+        <f>-20+K29*2</f>
         <v>26</v>
       </c>
       <c r="L67">
-        <f t="shared" si="26"/>
+        <f>-20+L29*2</f>
         <v>24</v>
       </c>
       <c r="M67">
-        <f t="shared" si="26"/>
+        <f>-20+M29*2</f>
         <v>24</v>
       </c>
       <c r="N67">
-        <f t="shared" si="26"/>
+        <f>-20+N29*2</f>
         <v>22</v>
       </c>
       <c r="O67">
-        <f t="shared" si="26"/>
+        <f>-20+O29*2</f>
         <v>20</v>
       </c>
       <c r="P67">
-        <f t="shared" si="26"/>
+        <f>-20+P29*2</f>
         <v>18</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="26"/>
+        <f>-20+Q29*2</f>
         <v>18</v>
       </c>
       <c r="R67">
-        <f t="shared" si="26"/>
+        <f>-20+R29*2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:R68" si="27">-20+A30*2</f>
+        <f>-20+A30*2</f>
         <v>50</v>
       </c>
       <c r="B68">
-        <f t="shared" si="27"/>
+        <f>-20+B30*2</f>
         <v>50</v>
       </c>
       <c r="C68">
-        <f t="shared" si="27"/>
+        <f>-20+C30*2</f>
         <v>50</v>
       </c>
       <c r="D68">
-        <f t="shared" si="27"/>
+        <f>-20+D30*2</f>
         <v>50</v>
       </c>
       <c r="E68">
-        <f t="shared" si="27"/>
+        <f>-20+E30*2</f>
         <v>50</v>
       </c>
       <c r="F68">
-        <f t="shared" si="27"/>
+        <f>-20+F30*2</f>
         <v>42</v>
       </c>
       <c r="G68">
-        <f t="shared" si="27"/>
+        <f>-20+G30*2</f>
         <v>38</v>
       </c>
       <c r="H68">
-        <f t="shared" si="27"/>
+        <f>-20+H30*2</f>
         <v>36</v>
       </c>
       <c r="I68">
-        <f t="shared" si="27"/>
+        <f>-20+I30*2</f>
         <v>32</v>
       </c>
       <c r="J68">
-        <f t="shared" si="27"/>
+        <f>-20+J30*2</f>
         <v>30</v>
       </c>
       <c r="K68">
-        <f t="shared" si="27"/>
+        <f>-20+K30*2</f>
         <v>28</v>
       </c>
       <c r="L68">
-        <f t="shared" si="27"/>
+        <f>-20+L30*2</f>
         <v>26</v>
       </c>
       <c r="M68">
-        <f t="shared" si="27"/>
+        <f>-20+M30*2</f>
         <v>24</v>
       </c>
       <c r="N68">
-        <f t="shared" si="27"/>
+        <f>-20+N30*2</f>
         <v>22</v>
       </c>
       <c r="O68">
-        <f t="shared" si="27"/>
+        <f>-20+O30*2</f>
         <v>20</v>
       </c>
       <c r="P68">
-        <f t="shared" si="27"/>
+        <f>-20+P30*2</f>
         <v>20</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="27"/>
+        <f>-20+Q30*2</f>
         <v>18</v>
       </c>
       <c r="R68">
-        <f t="shared" si="27"/>
+        <f>-20+R30*2</f>
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" ref="A69:R69" si="28">-20+A31*2</f>
+        <f>-20+A31*2</f>
         <v>50</v>
       </c>
       <c r="B69">
-        <f t="shared" si="28"/>
+        <f>-20+B31*2</f>
         <v>50</v>
       </c>
       <c r="C69">
-        <f t="shared" si="28"/>
+        <f>-20+C31*2</f>
         <v>50</v>
       </c>
       <c r="D69">
-        <f t="shared" si="28"/>
+        <f>-20+D31*2</f>
         <v>50</v>
       </c>
       <c r="E69">
-        <f t="shared" si="28"/>
+        <f>-20+E31*2</f>
         <v>50</v>
       </c>
       <c r="F69">
-        <f t="shared" si="28"/>
+        <f>-20+F31*2</f>
         <v>44</v>
       </c>
       <c r="G69">
-        <f t="shared" si="28"/>
+        <f>-20+G31*2</f>
         <v>38</v>
       </c>
       <c r="H69">
-        <f t="shared" si="28"/>
+        <f>-20+H31*2</f>
         <v>36</v>
       </c>
       <c r="I69">
-        <f t="shared" si="28"/>
+        <f>-20+I31*2</f>
         <v>32</v>
       </c>
       <c r="J69">
-        <f t="shared" si="28"/>
+        <f>-20+J31*2</f>
         <v>30</v>
       </c>
       <c r="K69">
-        <f t="shared" si="28"/>
+        <f>-20+K31*2</f>
         <v>28</v>
       </c>
       <c r="L69">
-        <f t="shared" si="28"/>
+        <f>-20+L31*2</f>
         <v>26</v>
       </c>
       <c r="M69">
-        <f t="shared" si="28"/>
+        <f>-20+M31*2</f>
         <v>24</v>
       </c>
       <c r="N69">
-        <f t="shared" si="28"/>
+        <f>-20+N31*2</f>
         <v>22</v>
       </c>
       <c r="O69">
-        <f t="shared" si="28"/>
+        <f>-20+O31*2</f>
         <v>22</v>
       </c>
       <c r="P69">
-        <f t="shared" si="28"/>
+        <f>-20+P31*2</f>
         <v>20</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="28"/>
+        <f>-20+Q31*2</f>
         <v>18</v>
       </c>
       <c r="R69">
-        <f t="shared" si="28"/>
+        <f>-20+R31*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" ref="A70:R70" si="29">-20+A32*2</f>
+        <f>-20+A32*2</f>
         <v>50</v>
       </c>
       <c r="B70">
-        <f t="shared" si="29"/>
+        <f>-20+B32*2</f>
         <v>50</v>
       </c>
       <c r="C70">
-        <f t="shared" si="29"/>
+        <f>-20+C32*2</f>
         <v>50</v>
       </c>
       <c r="D70">
-        <f t="shared" si="29"/>
+        <f>-20+D32*2</f>
         <v>50</v>
       </c>
       <c r="E70">
-        <f t="shared" si="29"/>
+        <f>-20+E32*2</f>
         <v>50</v>
       </c>
       <c r="F70">
-        <f t="shared" si="29"/>
+        <f>-20+F32*2</f>
         <v>44</v>
       </c>
       <c r="G70">
-        <f t="shared" si="29"/>
+        <f>-20+G32*2</f>
         <v>40</v>
       </c>
       <c r="H70">
-        <f t="shared" si="29"/>
+        <f>-20+H32*2</f>
         <v>36</v>
       </c>
       <c r="I70">
-        <f t="shared" si="29"/>
+        <f>-20+I32*2</f>
         <v>34</v>
       </c>
       <c r="J70">
-        <f t="shared" si="29"/>
+        <f>-20+J32*2</f>
         <v>30</v>
       </c>
       <c r="K70">
-        <f t="shared" si="29"/>
+        <f>-20+K32*2</f>
         <v>28</v>
       </c>
       <c r="L70">
-        <f t="shared" si="29"/>
+        <f>-20+L32*2</f>
         <v>26</v>
       </c>
       <c r="M70">
-        <f t="shared" si="29"/>
+        <f>-20+M32*2</f>
         <v>24</v>
       </c>
       <c r="N70">
-        <f t="shared" si="29"/>
+        <f>-20+N32*2</f>
         <v>24</v>
       </c>
       <c r="O70">
-        <f t="shared" si="29"/>
+        <f>-20+O32*2</f>
         <v>22</v>
       </c>
       <c r="P70">
-        <f t="shared" si="29"/>
+        <f>-20+P32*2</f>
         <v>20</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="29"/>
+        <f>-20+Q32*2</f>
         <v>18</v>
       </c>
       <c r="R70">
-        <f t="shared" si="29"/>
+        <f>-20+R32*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" ref="A71:R71" si="30">-20+A33*2</f>
+        <f>-20+A33*2</f>
         <v>50</v>
       </c>
       <c r="B71">
-        <f t="shared" si="30"/>
+        <f>-20+B33*2</f>
         <v>50</v>
       </c>
       <c r="C71">
-        <f t="shared" si="30"/>
+        <f>-20+C33*2</f>
         <v>50</v>
       </c>
       <c r="D71">
-        <f t="shared" si="30"/>
+        <f>-20+D33*2</f>
         <v>50</v>
       </c>
       <c r="E71">
-        <f t="shared" si="30"/>
+        <f>-20+E33*2</f>
         <v>50</v>
       </c>
       <c r="F71">
-        <f t="shared" si="30"/>
+        <f>-20+F33*2</f>
         <v>46</v>
       </c>
       <c r="G71">
-        <f t="shared" si="30"/>
+        <f>-20+G33*2</f>
         <v>40</v>
       </c>
       <c r="H71">
-        <f t="shared" si="30"/>
+        <f>-20+H33*2</f>
         <v>36</v>
       </c>
       <c r="I71">
-        <f t="shared" si="30"/>
+        <f>-20+I33*2</f>
         <v>34</v>
       </c>
       <c r="J71">
-        <f t="shared" si="30"/>
+        <f>-20+J33*2</f>
         <v>32</v>
       </c>
       <c r="K71">
-        <f t="shared" si="30"/>
+        <f>-20+K33*2</f>
         <v>28</v>
       </c>
       <c r="L71">
-        <f t="shared" si="30"/>
+        <f>-20+L33*2</f>
         <v>26</v>
       </c>
       <c r="M71">
-        <f t="shared" si="30"/>
+        <f>-20+M33*2</f>
         <v>26</v>
       </c>
       <c r="N71">
-        <f t="shared" si="30"/>
+        <f>-20+N33*2</f>
         <v>24</v>
       </c>
       <c r="O71">
-        <f t="shared" si="30"/>
+        <f>-20+O33*2</f>
         <v>22</v>
       </c>
       <c r="P71">
-        <f t="shared" si="30"/>
+        <f>-20+P33*2</f>
         <v>20</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="30"/>
+        <f>-20+Q33*2</f>
         <v>20</v>
       </c>
       <c r="R71">
-        <f t="shared" si="30"/>
+        <f>-20+R33*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" ref="A72:R72" si="31">-20+A34*2</f>
+        <f>-20+A34*2</f>
         <v>50</v>
       </c>
       <c r="B72">
-        <f t="shared" si="31"/>
+        <f>-20+B34*2</f>
         <v>50</v>
       </c>
       <c r="C72">
-        <f t="shared" si="31"/>
+        <f>-20+C34*2</f>
         <v>50</v>
       </c>
       <c r="D72">
-        <f t="shared" si="31"/>
+        <f>-20+D34*2</f>
         <v>50</v>
       </c>
       <c r="E72">
-        <f t="shared" si="31"/>
+        <f>-20+E34*2</f>
         <v>50</v>
       </c>
       <c r="F72">
-        <f t="shared" si="31"/>
+        <f>-20+F34*2</f>
         <v>46</v>
       </c>
       <c r="G72">
-        <f t="shared" si="31"/>
+        <f>-20+G34*2</f>
         <v>42</v>
       </c>
       <c r="H72">
-        <f t="shared" si="31"/>
+        <f>-20+H34*2</f>
         <v>38</v>
       </c>
       <c r="I72">
-        <f t="shared" si="31"/>
+        <f>-20+I34*2</f>
         <v>34</v>
       </c>
       <c r="J72">
-        <f t="shared" si="31"/>
+        <f>-20+J34*2</f>
         <v>32</v>
       </c>
       <c r="K72">
-        <f t="shared" si="31"/>
+        <f>-20+K34*2</f>
         <v>30</v>
       </c>
       <c r="L72">
-        <f t="shared" si="31"/>
+        <f>-20+L34*2</f>
         <v>28</v>
       </c>
       <c r="M72">
-        <f t="shared" si="31"/>
+        <f>-20+M34*2</f>
         <v>26</v>
       </c>
       <c r="N72">
-        <f t="shared" si="31"/>
+        <f>-20+N34*2</f>
         <v>24</v>
       </c>
       <c r="O72">
-        <f t="shared" si="31"/>
+        <f>-20+O34*2</f>
         <v>22</v>
       </c>
       <c r="P72">
-        <f t="shared" si="31"/>
+        <f>-20+P34*2</f>
         <v>22</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="31"/>
+        <f>-20+Q34*2</f>
         <v>20</v>
       </c>
       <c r="R72">
-        <f t="shared" si="31"/>
+        <f>-20+R34*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" ref="A73:R73" si="32">-20+A35*2</f>
+        <f>-20+A35*2</f>
         <v>50</v>
       </c>
       <c r="B73">
-        <f t="shared" si="32"/>
+        <f>-20+B35*2</f>
         <v>50</v>
       </c>
       <c r="C73">
-        <f t="shared" si="32"/>
+        <f>-20+C35*2</f>
         <v>50</v>
       </c>
       <c r="D73">
-        <f t="shared" si="32"/>
+        <f>-20+D35*2</f>
         <v>50</v>
       </c>
       <c r="E73">
-        <f t="shared" si="32"/>
+        <f>-20+E35*2</f>
         <v>50</v>
       </c>
       <c r="F73">
-        <f t="shared" si="32"/>
+        <f>-20+F35*2</f>
         <v>48</v>
       </c>
       <c r="G73">
-        <f t="shared" si="32"/>
+        <f>-20+G35*2</f>
         <v>42</v>
       </c>
       <c r="H73">
-        <f t="shared" si="32"/>
+        <f>-20+H35*2</f>
         <v>38</v>
       </c>
       <c r="I73">
-        <f t="shared" si="32"/>
+        <f>-20+I35*2</f>
         <v>34</v>
       </c>
       <c r="J73">
-        <f t="shared" si="32"/>
+        <f>-20+J35*2</f>
         <v>32</v>
       </c>
       <c r="K73">
-        <f t="shared" si="32"/>
+        <f>-20+K35*2</f>
         <v>30</v>
       </c>
       <c r="L73">
-        <f t="shared" si="32"/>
+        <f>-20+L35*2</f>
         <v>28</v>
       </c>
       <c r="M73">
-        <f t="shared" si="32"/>
+        <f>-20+M35*2</f>
         <v>26</v>
       </c>
       <c r="N73">
-        <f t="shared" si="32"/>
+        <f>-20+N35*2</f>
         <v>24</v>
       </c>
       <c r="O73">
-        <f t="shared" si="32"/>
+        <f>-20+O35*2</f>
         <v>22</v>
       </c>
       <c r="P73">
-        <f t="shared" si="32"/>
+        <f>-20+P35*2</f>
         <v>22</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="32"/>
+        <f>-20+Q35*2</f>
         <v>20</v>
       </c>
       <c r="R73">
-        <f t="shared" si="32"/>
+        <f>-20+R35*2</f>
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>